--- a/data/pomocka k saldo (vlookup).XLSX
+++ b/data/pomocka k saldo (vlookup).XLSX
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Manuálne účtovanie</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Vrátenie platby</t>
+  </si>
+  <si>
+    <t>Faktúra Storno</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -516,6 +519,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
     </row>
